--- a/scores.xlsx
+++ b/scores.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AEA5B14-913C-4BF8-BAE5-901936AC4DB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBEB6815-7F61-48B6-809D-0911CC97F2B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="14">
   <si>
     <t>alt</t>
   </si>
@@ -66,6 +66,24 @@
   </si>
   <si>
     <t>GEM_SEM_∞</t>
+  </si>
+  <si>
+    <t>GPT_COM_15</t>
+  </si>
+  <si>
+    <t>GPT_COM_25</t>
+  </si>
+  <si>
+    <t>GPT_COM_∞</t>
+  </si>
+  <si>
+    <t>GPT_SEM_15</t>
+  </si>
+  <si>
+    <t>GPT_SEM_25</t>
+  </si>
+  <si>
+    <t>GPT_SEM_∞</t>
   </si>
 </sst>
 </file>
@@ -6332,22 +6350,22 @@
         <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
@@ -8439,22 +8457,22 @@
         <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
@@ -10569,22 +10587,22 @@
         <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
